--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -615,13 +615,21 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
       <c r="N3" t="n">
         <v>926</v>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
@@ -725,13 +733,21 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" t="n">
         <v>1253</v>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
@@ -776,13 +792,21 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" t="n">
         <v>239.666666666667</v>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
@@ -827,13 +851,21 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" t="n">
         <v>397.5</v>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
@@ -1291,13 +1323,21 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" t="n">
         <v>808</v>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
@@ -1401,13 +1441,21 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
       <c r="N17" t="n">
         <v>224.75</v>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
@@ -1452,13 +1500,21 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
       <c r="N18" t="n">
         <v>2537</v>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
@@ -1503,13 +1559,21 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
       <c r="N19" t="n">
         <v>913</v>
       </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
@@ -1554,13 +1618,21 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
       <c r="N20" t="n">
         <v>1227</v>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
@@ -1605,13 +1677,21 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" t="n">
         <v>1586</v>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
@@ -1774,13 +1854,21 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
       <c r="N24" t="n">
         <v>77</v>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
       <c r="P24" t="n">
         <v>9</v>
       </c>
@@ -1825,13 +1913,21 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
       <c r="N25" t="n">
         <v>425.5</v>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
@@ -2112,13 +2208,21 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
       <c r="N30" t="n">
         <v>173.666666666667</v>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
@@ -2163,13 +2267,21 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
       <c r="N31" t="n">
         <v>298</v>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
@@ -2214,13 +2326,21 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
       <c r="N32" t="n">
         <v>954</v>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
       <c r="P32" t="n">
         <v>2</v>
       </c>
@@ -2383,13 +2503,21 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
       <c r="N35" t="n">
         <v>2279</v>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
@@ -2434,13 +2562,21 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
       <c r="N36" t="n">
         <v>800</v>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
@@ -2485,13 +2621,21 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
       <c r="N37" t="n">
         <v>153</v>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
       <c r="P37" t="n">
         <v>1</v>
       </c>
@@ -2595,13 +2739,21 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
       <c r="N39" t="n">
         <v>1497</v>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
       <c r="P39" t="n">
         <v>1</v>
       </c>
@@ -2646,13 +2798,21 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
       <c r="N40" t="n">
         <v>75.6363636363636</v>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
       <c r="P40" t="n">
         <v>1</v>
       </c>
@@ -2697,13 +2857,21 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
       <c r="N41" t="n">
         <v>183.615384615385</v>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
       <c r="P41" t="n">
         <v>3</v>
       </c>
@@ -2807,13 +2975,21 @@
       <c r="J43" t="n">
         <v>0</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
       <c r="N43" t="n">
         <v>960.5</v>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
       <c r="P43" t="n">
         <v>2</v>
       </c>
@@ -2858,13 +3034,21 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
       <c r="N44" t="n">
         <v>438.25</v>
       </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
       <c r="P44" t="n">
         <v>1</v>
       </c>
@@ -2909,13 +3093,21 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
       <c r="N45" t="n">
         <v>610</v>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
       <c r="P45" t="n">
         <v>2</v>
       </c>
@@ -3019,13 +3211,21 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
       <c r="N47" t="n">
         <v>300</v>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
       <c r="P47" t="n">
         <v>1</v>
       </c>
@@ -3070,13 +3270,21 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
       <c r="N48" t="n">
         <v>66.75</v>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
       <c r="P48" t="n">
         <v>2</v>
       </c>
@@ -3121,13 +3329,21 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
       <c r="N49" t="n">
         <v>406</v>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
       <c r="P49" t="n">
         <v>1</v>
       </c>
@@ -3172,13 +3388,21 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
       <c r="N50" t="n">
         <v>141.75</v>
       </c>
-      <c r="O50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
       <c r="P50" t="n">
         <v>1</v>
       </c>
@@ -3223,13 +3447,21 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
       <c r="N51" t="n">
         <v>481</v>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
       <c r="P51" t="n">
         <v>2</v>
       </c>
@@ -3274,13 +3506,21 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
       <c r="N52" t="n">
         <v>929</v>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
       <c r="P52" t="n">
         <v>2</v>
       </c>
@@ -3325,13 +3565,21 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
       <c r="N53" t="n">
         <v>193</v>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
@@ -3376,13 +3624,21 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
       <c r="N54" t="n">
         <v>744</v>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
       <c r="P54" t="n">
         <v>2</v>
       </c>
@@ -3427,13 +3683,21 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
       <c r="N55" t="n">
         <v>910</v>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
       <c r="P55" t="n">
         <v>1</v>
       </c>
@@ -3478,13 +3742,21 @@
       <c r="J56" t="n">
         <v>0</v>
       </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
       <c r="N56" t="n">
         <v>638</v>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
       <c r="P56" t="n">
         <v>1</v>
       </c>
@@ -3529,13 +3801,21 @@
       <c r="J57" t="n">
         <v>0</v>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
       <c r="N57" t="n">
         <v>409</v>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
       <c r="P57" t="n">
         <v>1</v>
       </c>
@@ -3580,13 +3860,21 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
       <c r="N58" t="n">
         <v>805</v>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
       <c r="P58" t="n">
         <v>1</v>
       </c>
@@ -3631,13 +3919,21 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
       <c r="N59" t="n">
         <v>397.6</v>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
       <c r="P59" t="n">
         <v>1</v>
       </c>
@@ -3741,13 +4037,21 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
       <c r="N61" t="n">
         <v>255.333333333333</v>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
       <c r="P61" t="n">
         <v>1</v>
       </c>
@@ -3910,13 +4214,21 @@
       <c r="J64" t="n">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
       <c r="N64" t="n">
         <v>510</v>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
       <c r="P64" t="n">
         <v>1</v>
       </c>
@@ -4020,13 +4332,21 @@
       <c r="J66" t="n">
         <v>0</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
       <c r="N66" t="n">
         <v>1370</v>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
       <c r="P66" t="n">
         <v>1</v>
       </c>
@@ -4071,13 +4391,21 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
       <c r="N67" t="n">
         <v>1443</v>
       </c>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
       <c r="P67" t="n">
         <v>1</v>
       </c>
@@ -4181,13 +4509,21 @@
       <c r="J69" t="n">
         <v>0</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
       <c r="N69" t="n">
         <v>603</v>
       </c>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
       <c r="P69" t="n">
         <v>1</v>
       </c>
@@ -4409,13 +4745,21 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
       <c r="N73" t="n">
         <v>148</v>
       </c>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
       <c r="P73" t="n">
         <v>1</v>
       </c>
@@ -4519,13 +4863,21 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
       <c r="N75" t="n">
         <v>72.75</v>
       </c>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
       <c r="P75" t="n">
         <v>1</v>
       </c>
@@ -4688,13 +5040,21 @@
       <c r="J78" t="n">
         <v>0</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
       <c r="N78" t="n">
         <v>435</v>
       </c>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
       <c r="P78" t="n">
         <v>2</v>
       </c>
@@ -4739,13 +5099,21 @@
       <c r="J79" t="n">
         <v>0</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
       <c r="N79" t="n">
         <v>296</v>
       </c>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
       <c r="P79" t="n">
         <v>2</v>
       </c>
@@ -4967,13 +5335,21 @@
       <c r="J83" t="n">
         <v>0</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
       <c r="N83" t="n">
         <v>108.25</v>
       </c>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
       <c r="P83" t="n">
         <v>1</v>
       </c>
@@ -5254,13 +5630,21 @@
       <c r="J88" t="n">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
       <c r="N88" t="n">
         <v>90</v>
       </c>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
       <c r="P88" t="n">
         <v>1</v>
       </c>
@@ -5305,13 +5689,21 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
       <c r="N89" t="n">
         <v>657</v>
       </c>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
       <c r="P89" t="n">
         <v>1</v>
       </c>
@@ -5415,13 +5807,21 @@
       <c r="J91" t="n">
         <v>0</v>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
       <c r="N91" t="n">
         <v>1109</v>
       </c>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
       <c r="P91" t="n">
         <v>1</v>
       </c>
@@ -5525,13 +5925,21 @@
       <c r="J93" t="n">
         <v>0</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
       <c r="N93" t="n">
         <v>500</v>
       </c>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
       <c r="P93" t="n">
         <v>1</v>
       </c>
@@ -5812,13 +6220,21 @@
       <c r="J98" t="n">
         <v>0</v>
       </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
       <c r="N98" t="n">
         <v>250</v>
       </c>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
       <c r="P98" t="n">
         <v>1</v>
       </c>
@@ -5981,13 +6397,21 @@
       <c r="J101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
       <c r="N101" t="n">
         <v>706</v>
       </c>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
       <c r="P101" t="n">
         <v>1</v>
       </c>
@@ -6032,13 +6456,21 @@
       <c r="J102" t="n">
         <v>0</v>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
       <c r="N102" t="n">
         <v>216</v>
       </c>
-      <c r="O102" t="inlineStr"/>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
       <c r="P102" t="n">
         <v>1</v>
       </c>
@@ -6083,13 +6515,21 @@
       <c r="J103" t="n">
         <v>0</v>
       </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
       <c r="N103" t="n">
         <v>194</v>
       </c>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
       <c r="P103" t="n">
         <v>3</v>
       </c>
@@ -6311,13 +6751,21 @@
       <c r="J107" t="n">
         <v>0</v>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
       <c r="N107" t="n">
         <v>280</v>
       </c>
-      <c r="O107" t="inlineStr"/>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
       <c r="P107" t="n">
         <v>1</v>
       </c>
@@ -6657,13 +7105,21 @@
       <c r="J113" t="n">
         <v>0</v>
       </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
       <c r="N113" t="n">
         <v>336</v>
       </c>
-      <c r="O113" t="inlineStr"/>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
       <c r="P113" t="n">
         <v>2</v>
       </c>
@@ -6767,13 +7223,21 @@
       <c r="J115" t="n">
         <v>0</v>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
       <c r="N115" t="n">
         <v>256</v>
       </c>
-      <c r="O115" t="inlineStr"/>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
       <c r="P115" t="n">
         <v>1</v>
       </c>
@@ -6995,13 +7459,21 @@
       <c r="J119" t="n">
         <v>0</v>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
       <c r="N119" t="n">
         <v>340.5</v>
       </c>
-      <c r="O119" t="inlineStr"/>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
       <c r="P119" t="n">
         <v>1</v>
       </c>
@@ -7046,13 +7518,21 @@
       <c r="J120" t="n">
         <v>0</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
       <c r="N120" t="n">
         <v>676</v>
       </c>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
       <c r="P120" t="n">
         <v>1</v>
       </c>
@@ -7097,13 +7577,21 @@
       <c r="J121" t="n">
         <v>0</v>
       </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
       <c r="N121" t="n">
         <v>390</v>
       </c>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
       <c r="P121" t="n">
         <v>1</v>
       </c>
@@ -7148,13 +7636,21 @@
       <c r="J122" t="n">
         <v>0</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
       <c r="N122" t="n">
         <v>158</v>
       </c>
-      <c r="O122" t="inlineStr"/>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
       <c r="P122" t="n">
         <v>2</v>
       </c>
@@ -7199,13 +7695,21 @@
       <c r="J123" t="n">
         <v>0</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
       <c r="N123" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="O123" t="inlineStr"/>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
       <c r="P123" t="n">
         <v>1</v>
       </c>
@@ -7309,13 +7813,21 @@
       <c r="J125" t="n">
         <v>0</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
       <c r="N125" t="n">
         <v>222.5</v>
       </c>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
       <c r="P125" t="n">
         <v>1</v>
       </c>
@@ -7419,13 +7931,21 @@
       <c r="J127" t="n">
         <v>0</v>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
       <c r="N127" t="n">
         <v>143.666666666667</v>
       </c>
-      <c r="O127" t="inlineStr"/>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
       <c r="P127" t="n">
         <v>1</v>
       </c>
@@ -7470,13 +7990,21 @@
       <c r="J128" t="n">
         <v>0</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
       <c r="N128" t="n">
         <v>170.5</v>
       </c>
-      <c r="O128" t="inlineStr"/>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
       <c r="P128" t="n">
         <v>3</v>
       </c>
@@ -7521,13 +8049,21 @@
       <c r="J129" t="n">
         <v>0</v>
       </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
       <c r="N129" t="n">
         <v>307</v>
       </c>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
       <c r="P129" t="n">
         <v>2</v>
       </c>
@@ -7572,13 +8108,21 @@
       <c r="J130" t="n">
         <v>0</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
       <c r="N130" t="n">
         <v>920</v>
       </c>
-      <c r="O130" t="inlineStr"/>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
       <c r="P130" t="n">
         <v>1</v>
       </c>
@@ -7623,13 +8167,21 @@
       <c r="J131" t="n">
         <v>0</v>
       </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
       <c r="N131" t="n">
         <v>854</v>
       </c>
-      <c r="O131" t="inlineStr"/>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
       <c r="P131" t="n">
         <v>1</v>
       </c>
@@ -7674,13 +8226,21 @@
       <c r="J132" t="n">
         <v>0</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
       <c r="N132" t="n">
         <v>550</v>
       </c>
-      <c r="O132" t="inlineStr"/>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
       <c r="P132" t="n">
         <v>1</v>
       </c>
@@ -7725,13 +8285,21 @@
       <c r="J133" t="n">
         <v>0</v>
       </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
       <c r="N133" t="n">
         <v>201</v>
       </c>
-      <c r="O133" t="inlineStr"/>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
       <c r="P133" t="n">
         <v>1</v>
       </c>
@@ -7776,13 +8344,21 @@
       <c r="J134" t="n">
         <v>0</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
       <c r="N134" t="n">
         <v>370</v>
       </c>
-      <c r="O134" t="inlineStr"/>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
       <c r="P134" t="n">
         <v>1</v>
       </c>
@@ -7827,13 +8403,21 @@
       <c r="J135" t="n">
         <v>0</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
       <c r="N135" t="n">
         <v>82.6666666666667</v>
       </c>
-      <c r="O135" t="inlineStr"/>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
       <c r="P135" t="n">
         <v>3</v>
       </c>
@@ -7878,13 +8462,21 @@
       <c r="J136" t="n">
         <v>0</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
       <c r="N136" t="n">
         <v>132</v>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
       <c r="P136" t="n">
         <v>2</v>
       </c>
@@ -8165,13 +8757,21 @@
       <c r="J141" t="n">
         <v>0</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
       <c r="N141" t="n">
         <v>199</v>
       </c>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
       <c r="P141" t="n">
         <v>1</v>
       </c>
@@ -8334,13 +8934,21 @@
       <c r="J144" t="n">
         <v>0</v>
       </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
       <c r="N144" t="n">
         <v>159</v>
       </c>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
       <c r="P144" t="n">
         <v>1</v>
       </c>
@@ -8562,13 +9170,21 @@
       <c r="J148" t="n">
         <v>0</v>
       </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
       <c r="N148" t="n">
         <v>581</v>
       </c>
-      <c r="O148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
       <c r="P148" t="n">
         <v>1</v>
       </c>
@@ -8613,13 +9229,21 @@
       <c r="J149" t="n">
         <v>0</v>
       </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
       <c r="N149" t="n">
         <v>152</v>
       </c>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
       <c r="P149" t="n">
         <v>1</v>
       </c>
@@ -9018,13 +9642,21 @@
       <c r="J156" t="n">
         <v>0</v>
       </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
       <c r="N156" t="n">
         <v>453</v>
       </c>
-      <c r="O156" t="inlineStr"/>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
       <c r="P156" t="n">
         <v>1</v>
       </c>
@@ -9128,13 +9760,21 @@
       <c r="J158" t="n">
         <v>0</v>
       </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
       <c r="N158" t="n">
         <v>624</v>
       </c>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
       <c r="P158" t="n">
         <v>2</v>
       </c>
@@ -9238,13 +9878,21 @@
       <c r="J160" t="n">
         <v>0</v>
       </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
       <c r="N160" t="n">
         <v>127.25</v>
       </c>
-      <c r="O160" t="inlineStr"/>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
       <c r="P160" t="n">
         <v>1</v>
       </c>
@@ -9348,13 +9996,21 @@
       <c r="J162" t="n">
         <v>0</v>
       </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
       <c r="N162" t="n">
         <v>635</v>
       </c>
-      <c r="O162" t="inlineStr"/>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
       <c r="P162" t="n">
         <v>1</v>
       </c>
@@ -9517,13 +10173,21 @@
       <c r="J165" t="n">
         <v>0</v>
       </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
       <c r="N165" t="n">
         <v>373.5</v>
       </c>
-      <c r="O165" t="inlineStr"/>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
       <c r="P165" t="n">
         <v>1</v>
       </c>
@@ -9627,13 +10291,21 @@
       <c r="J167" t="n">
         <v>0</v>
       </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
       <c r="N167" t="n">
         <v>162.5</v>
       </c>
-      <c r="O167" t="inlineStr"/>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
       <c r="P167" t="n">
         <v>1</v>
       </c>
@@ -9796,13 +10468,21 @@
       <c r="J170" t="n">
         <v>0</v>
       </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
       <c r="N170" t="n">
         <v>248</v>
       </c>
-      <c r="O170" t="inlineStr"/>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
       <c r="P170" t="n">
         <v>3</v>
       </c>
@@ -9847,13 +10527,21 @@
       <c r="J171" t="n">
         <v>0</v>
       </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
       <c r="N171" t="n">
         <v>249.5</v>
       </c>
-      <c r="O171" t="inlineStr"/>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
       <c r="P171" t="n">
         <v>1</v>
       </c>
@@ -10016,13 +10704,21 @@
       <c r="J174" t="n">
         <v>0</v>
       </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
       <c r="N174" t="n">
         <v>230</v>
       </c>
-      <c r="O174" t="inlineStr"/>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
       <c r="P174" t="n">
         <v>3</v>
       </c>
@@ -10067,13 +10763,21 @@
       <c r="J175" t="n">
         <v>0</v>
       </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
       <c r="N175" t="n">
         <v>354</v>
       </c>
-      <c r="O175" t="inlineStr"/>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
       <c r="P175" t="n">
         <v>1</v>
       </c>
@@ -10354,13 +11058,21 @@
       <c r="J180" t="n">
         <v>0</v>
       </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
       <c r="N180" t="n">
         <v>440</v>
       </c>
-      <c r="O180" t="inlineStr"/>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
       <c r="P180" t="n">
         <v>1</v>
       </c>
@@ -10405,13 +11117,21 @@
       <c r="J181" t="n">
         <v>0</v>
       </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
       <c r="N181" t="n">
         <v>172.5</v>
       </c>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
       <c r="P181" t="n">
         <v>1</v>
       </c>
@@ -10456,13 +11176,21 @@
       <c r="J182" t="n">
         <v>0</v>
       </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
       <c r="N182" t="n">
         <v>232</v>
       </c>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
       <c r="P182" t="n">
         <v>1</v>
       </c>
@@ -10566,13 +11294,21 @@
       <c r="J184" t="n">
         <v>0</v>
       </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
       <c r="N184" t="n">
         <v>285.333333333333</v>
       </c>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
       <c r="P184" t="n">
         <v>1</v>
       </c>
@@ -10617,13 +11353,21 @@
       <c r="J185" t="n">
         <v>0</v>
       </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
       <c r="N185" t="n">
         <v>438</v>
       </c>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
       <c r="P185" t="n">
         <v>1</v>
       </c>
@@ -10786,13 +11530,21 @@
       <c r="J188" t="n">
         <v>0</v>
       </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
       <c r="N188" t="n">
         <v>990</v>
       </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
       <c r="P188" t="n">
         <v>2</v>
       </c>
@@ -10837,13 +11589,21 @@
       <c r="J189" t="n">
         <v>0</v>
       </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
       <c r="N189" t="n">
         <v>543</v>
       </c>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
       <c r="P189" t="n">
         <v>2</v>
       </c>
@@ -10947,13 +11707,21 @@
       <c r="J191" t="n">
         <v>0</v>
       </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
       <c r="N191" t="n">
         <v>96.8</v>
       </c>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
       <c r="P191" t="n">
         <v>1</v>
       </c>
@@ -10998,13 +11766,21 @@
       <c r="J192" t="n">
         <v>0</v>
       </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
       <c r="N192" t="n">
         <v>102.333333333333</v>
       </c>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
       <c r="P192" t="n">
         <v>1</v>
       </c>
@@ -11167,13 +11943,21 @@
       <c r="J195" t="n">
         <v>0</v>
       </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
       <c r="N195" t="n">
         <v>250</v>
       </c>
-      <c r="O195" t="inlineStr"/>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
       <c r="P195" t="n">
         <v>1</v>
       </c>
@@ -11395,13 +12179,21 @@
       <c r="J199" t="n">
         <v>0</v>
       </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
       <c r="N199" t="n">
         <v>459</v>
       </c>
-      <c r="O199" t="inlineStr"/>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
       <c r="P199" t="n">
         <v>1</v>
       </c>
@@ -11505,13 +12297,21 @@
       <c r="J201" t="n">
         <v>0</v>
       </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
       <c r="N201" t="n">
         <v>321</v>
       </c>
-      <c r="O201" t="inlineStr"/>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
       <c r="P201" t="n">
         <v>1</v>
       </c>
@@ -11556,13 +12356,21 @@
       <c r="J202" t="n">
         <v>0</v>
       </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
       <c r="N202" t="n">
         <v>252</v>
       </c>
-      <c r="O202" t="inlineStr"/>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
       <c r="P202" t="n">
         <v>1</v>
       </c>
@@ -11607,13 +12415,21 @@
       <c r="J203" t="n">
         <v>0</v>
       </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
       <c r="N203" t="n">
         <v>495</v>
       </c>
-      <c r="O203" t="inlineStr"/>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
       <c r="P203" t="n">
         <v>1</v>
       </c>
@@ -11658,13 +12474,21 @@
       <c r="J204" t="n">
         <v>0</v>
       </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
       <c r="N204" t="n">
         <v>403</v>
       </c>
-      <c r="O204" t="inlineStr"/>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
       <c r="P204" t="n">
         <v>1</v>
       </c>
@@ -11709,13 +12533,21 @@
       <c r="J205" t="n">
         <v>0</v>
       </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
       <c r="N205" t="n">
         <v>353</v>
       </c>
-      <c r="O205" t="inlineStr"/>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
       <c r="P205" t="n">
         <v>1</v>
       </c>
@@ -11760,13 +12592,21 @@
       <c r="J206" t="n">
         <v>0</v>
       </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
       <c r="N206" t="n">
         <v>867</v>
       </c>
-      <c r="O206" t="inlineStr"/>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
       <c r="P206" t="n">
         <v>1</v>
       </c>
@@ -11870,13 +12710,21 @@
       <c r="J208" t="n">
         <v>0</v>
       </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
       <c r="N208" t="n">
         <v>313</v>
       </c>
-      <c r="O208" t="inlineStr"/>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
       <c r="P208" t="n">
         <v>2</v>
       </c>
@@ -12216,13 +13064,21 @@
       <c r="J214" t="n">
         <v>0</v>
       </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
       <c r="N214" t="n">
         <v>661</v>
       </c>
-      <c r="O214" t="inlineStr"/>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
       <c r="P214" t="n">
         <v>1</v>
       </c>
@@ -12267,13 +13123,21 @@
       <c r="J215" t="n">
         <v>0</v>
       </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
       <c r="N215" t="n">
         <v>504</v>
       </c>
-      <c r="O215" t="inlineStr"/>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
       <c r="P215" t="n">
         <v>1</v>
       </c>
@@ -12377,13 +13241,21 @@
       <c r="J217" t="n">
         <v>0</v>
       </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
       <c r="N217" t="n">
         <v>398</v>
       </c>
-      <c r="O217" t="inlineStr"/>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
       <c r="P217" t="n">
         <v>1</v>
       </c>
@@ -12487,13 +13359,21 @@
       <c r="J219" t="n">
         <v>0</v>
       </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
       <c r="N219" t="n">
         <v>328.666666666667</v>
       </c>
-      <c r="O219" t="inlineStr"/>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
       <c r="P219" t="n">
         <v>4</v>
       </c>
@@ -12538,13 +13418,21 @@
       <c r="J220" t="n">
         <v>0</v>
       </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
       <c r="N220" t="n">
         <v>131.2</v>
       </c>
-      <c r="O220" t="inlineStr"/>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
       <c r="P220" t="n">
         <v>3</v>
       </c>
@@ -12648,13 +13536,21 @@
       <c r="J222" t="n">
         <v>0</v>
       </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
       <c r="N222" t="n">
         <v>489</v>
       </c>
-      <c r="O222" t="inlineStr"/>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
       <c r="P222" t="n">
         <v>1</v>
       </c>
@@ -12935,13 +13831,21 @@
       <c r="J227" t="n">
         <v>0</v>
       </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
       <c r="N227" t="n">
         <v>262</v>
       </c>
-      <c r="O227" t="inlineStr"/>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
       <c r="P227" t="n">
         <v>1</v>
       </c>
@@ -13045,13 +13949,21 @@
       <c r="J229" t="n">
         <v>0</v>
       </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
       <c r="N229" t="n">
         <v>553</v>
       </c>
-      <c r="O229" t="inlineStr"/>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
       <c r="P229" t="n">
         <v>1</v>
       </c>
@@ -13155,13 +14067,21 @@
       <c r="J231" t="n">
         <v>0</v>
       </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
       <c r="N231" t="n">
         <v>683</v>
       </c>
-      <c r="O231" t="inlineStr"/>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
       <c r="P231" t="n">
         <v>2</v>
       </c>
@@ -13265,13 +14185,21 @@
       <c r="J233" t="n">
         <v>0</v>
       </c>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
       <c r="N233" t="n">
         <v>410</v>
       </c>
-      <c r="O233" t="inlineStr"/>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
       <c r="P233" t="n">
         <v>1</v>
       </c>
@@ -13316,13 +14244,21 @@
       <c r="J234" t="n">
         <v>0</v>
       </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
       <c r="N234" t="n">
         <v>775</v>
       </c>
-      <c r="O234" t="inlineStr"/>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
       <c r="P234" t="n">
         <v>1</v>
       </c>
@@ -13367,13 +14303,21 @@
       <c r="J235" t="n">
         <v>0</v>
       </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
       <c r="N235" t="n">
         <v>613</v>
       </c>
-      <c r="O235" t="inlineStr"/>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
       <c r="P235" t="n">
         <v>2</v>
       </c>
@@ -13418,13 +14362,21 @@
       <c r="J236" t="n">
         <v>0</v>
       </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
       <c r="N236" t="n">
         <v>422</v>
       </c>
-      <c r="O236" t="inlineStr"/>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
       <c r="P236" t="n">
         <v>1</v>
       </c>
@@ -13469,13 +14421,21 @@
       <c r="J237" t="n">
         <v>0</v>
       </c>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
       <c r="N237" t="n">
         <v>136.166666666667</v>
       </c>
-      <c r="O237" t="inlineStr"/>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
       <c r="P237" t="n">
         <v>3</v>
       </c>
@@ -13520,13 +14480,21 @@
       <c r="J238" t="n">
         <v>0</v>
       </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
       <c r="N238" t="n">
         <v>235</v>
       </c>
-      <c r="O238" t="inlineStr"/>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
       <c r="P238" t="n">
         <v>1</v>
       </c>
@@ -13630,13 +14598,21 @@
       <c r="J240" t="n">
         <v>0</v>
       </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
       <c r="N240" t="n">
         <v>182.2</v>
       </c>
-      <c r="O240" t="inlineStr"/>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
       <c r="P240" t="n">
         <v>5</v>
       </c>
@@ -13858,13 +14834,21 @@
       <c r="J244" t="n">
         <v>0</v>
       </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
       <c r="N244" t="n">
         <v>77.625</v>
       </c>
-      <c r="O244" t="inlineStr"/>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
       <c r="P244" t="n">
         <v>5</v>
       </c>
@@ -13909,13 +14893,21 @@
       <c r="J245" t="n">
         <v>0</v>
       </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
       <c r="N245" t="n">
         <v>705</v>
       </c>
-      <c r="O245" t="inlineStr"/>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
       <c r="P245" t="n">
         <v>1</v>
       </c>
@@ -13960,13 +14952,21 @@
       <c r="J246" t="n">
         <v>0</v>
       </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
       <c r="N246" t="n">
         <v>224</v>
       </c>
-      <c r="O246" t="inlineStr"/>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
       <c r="P246" t="n">
         <v>4</v>
       </c>
@@ -14070,13 +15070,21 @@
       <c r="J248" t="n">
         <v>0</v>
       </c>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
       <c r="N248" t="n">
         <v>1034</v>
       </c>
-      <c r="O248" t="inlineStr"/>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
       <c r="P248" t="n">
         <v>1</v>
       </c>
@@ -14180,13 +15188,21 @@
       <c r="J250" t="n">
         <v>0</v>
       </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
       <c r="N250" t="n">
         <v>205</v>
       </c>
-      <c r="O250" t="inlineStr"/>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
       <c r="P250" t="n">
         <v>1</v>
       </c>
@@ -14231,13 +15247,21 @@
       <c r="J251" t="n">
         <v>0</v>
       </c>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
       <c r="N251" t="n">
         <v>215</v>
       </c>
-      <c r="O251" t="inlineStr"/>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
       <c r="P251" t="n">
         <v>1</v>
       </c>
@@ -14282,13 +15306,21 @@
       <c r="J252" t="n">
         <v>0</v>
       </c>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
       <c r="N252" t="n">
         <v>197</v>
       </c>
-      <c r="O252" t="inlineStr"/>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
       <c r="P252" t="n">
         <v>1</v>
       </c>
@@ -14510,13 +15542,21 @@
       <c r="J256" t="n">
         <v>0</v>
       </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
       <c r="N256" t="n">
         <v>283</v>
       </c>
-      <c r="O256" t="inlineStr"/>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
       <c r="P256" t="n">
         <v>2</v>
       </c>
@@ -14561,13 +15601,21 @@
       <c r="J257" t="n">
         <v>0</v>
       </c>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
       <c r="N257" t="n">
         <v>571</v>
       </c>
-      <c r="O257" t="inlineStr"/>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
       <c r="P257" t="n">
         <v>1</v>
       </c>
@@ -14612,13 +15660,21 @@
       <c r="J258" t="n">
         <v>0</v>
       </c>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
       <c r="N258" t="n">
         <v>293.5</v>
       </c>
-      <c r="O258" t="inlineStr"/>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
       <c r="P258" t="n">
         <v>2</v>
       </c>
@@ -14663,13 +15719,21 @@
       <c r="J259" t="n">
         <v>0</v>
       </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
       <c r="N259" t="n">
         <v>36.3157894736842</v>
       </c>
-      <c r="O259" t="inlineStr"/>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
       <c r="P259" t="n">
         <v>2</v>
       </c>
@@ -14773,13 +15837,21 @@
       <c r="J261" t="n">
         <v>0</v>
       </c>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
       <c r="N261" t="n">
         <v>462</v>
       </c>
-      <c r="O261" t="inlineStr"/>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
       <c r="P261" t="n">
         <v>1</v>
       </c>
@@ -14883,13 +15955,21 @@
       <c r="J263" t="n">
         <v>0</v>
       </c>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
       <c r="N263" t="n">
         <v>210.25</v>
       </c>
-      <c r="O263" t="inlineStr"/>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
       <c r="P263" t="n">
         <v>2</v>
       </c>
@@ -15288,13 +16368,21 @@
       <c r="J270" t="n">
         <v>0</v>
       </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
       <c r="N270" t="n">
         <v>274</v>
       </c>
-      <c r="O270" t="inlineStr"/>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
       <c r="P270" t="n">
         <v>1</v>
       </c>
@@ -15575,13 +16663,21 @@
       <c r="J275" t="n">
         <v>0</v>
       </c>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
       <c r="N275" t="n">
         <v>86</v>
       </c>
-      <c r="O275" t="inlineStr"/>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
       <c r="P275" t="n">
         <v>2</v>
       </c>
@@ -15685,13 +16781,21 @@
       <c r="J277" t="n">
         <v>0</v>
       </c>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
       <c r="N277" t="n">
         <v>416</v>
       </c>
-      <c r="O277" t="inlineStr"/>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
       <c r="P277" t="n">
         <v>2</v>
       </c>
@@ -15736,13 +16840,21 @@
       <c r="J278" t="n">
         <v>0</v>
       </c>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
       <c r="N278" t="n">
         <v>808</v>
       </c>
-      <c r="O278" t="inlineStr"/>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
       <c r="P278" t="n">
         <v>1</v>
       </c>
@@ -15787,13 +16899,21 @@
       <c r="J279" t="n">
         <v>0</v>
       </c>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
       <c r="N279" t="n">
         <v>537</v>
       </c>
-      <c r="O279" t="inlineStr"/>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
       <c r="P279" t="n">
         <v>3</v>
       </c>
@@ -15956,13 +17076,21 @@
       <c r="J282" t="n">
         <v>0</v>
       </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
       <c r="N282" t="n">
         <v>343</v>
       </c>
-      <c r="O282" t="inlineStr"/>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
       <c r="P282" t="n">
         <v>1</v>
       </c>
@@ -16243,13 +17371,21 @@
       <c r="J287" t="n">
         <v>0</v>
       </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
       <c r="N287" t="n">
         <v>341</v>
       </c>
-      <c r="O287" t="inlineStr"/>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
       <c r="P287" t="n">
         <v>2</v>
       </c>
@@ -16294,13 +17430,21 @@
       <c r="J288" t="n">
         <v>0</v>
       </c>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
       <c r="N288" t="n">
         <v>356.5</v>
       </c>
-      <c r="O288" t="inlineStr"/>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
       <c r="P288" t="n">
         <v>1</v>
       </c>
@@ -16404,13 +17548,21 @@
       <c r="J290" t="n">
         <v>0</v>
       </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
       <c r="N290" t="n">
         <v>339</v>
       </c>
-      <c r="O290" t="inlineStr"/>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
       <c r="P290" t="n">
         <v>1</v>
       </c>
@@ -16455,13 +17607,21 @@
       <c r="J291" t="n">
         <v>0</v>
       </c>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
       <c r="N291" t="n">
         <v>217</v>
       </c>
-      <c r="O291" t="inlineStr"/>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
       <c r="P291" t="n">
         <v>1</v>
       </c>
@@ -16506,13 +17666,21 @@
       <c r="J292" t="n">
         <v>0</v>
       </c>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
       <c r="N292" t="n">
         <v>294</v>
       </c>
-      <c r="O292" t="inlineStr"/>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
       <c r="P292" t="n">
         <v>1</v>
       </c>
@@ -16734,13 +17902,21 @@
       <c r="J296" t="n">
         <v>0</v>
       </c>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
       <c r="N296" t="n">
         <v>140</v>
       </c>
-      <c r="O296" t="inlineStr"/>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
       <c r="P296" t="n">
         <v>1</v>
       </c>
@@ -16785,13 +17961,21 @@
       <c r="J297" t="n">
         <v>0</v>
       </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
       <c r="N297" t="n">
         <v>102</v>
       </c>
-      <c r="O297" t="inlineStr"/>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
       <c r="P297" t="n">
         <v>2</v>
       </c>
@@ -16954,13 +18138,21 @@
       <c r="J300" t="n">
         <v>0</v>
       </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
       <c r="N300" t="n">
         <v>424</v>
       </c>
-      <c r="O300" t="inlineStr"/>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
       <c r="P300" t="n">
         <v>1</v>
       </c>
@@ -17182,13 +18374,21 @@
       <c r="J304" t="n">
         <v>0</v>
       </c>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
       <c r="N304" t="n">
         <v>66.3333333333333</v>
       </c>
-      <c r="O304" t="inlineStr"/>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
       <c r="P304" t="n">
         <v>1</v>
       </c>
@@ -17469,13 +18669,21 @@
       <c r="J309" t="n">
         <v>0</v>
       </c>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
       <c r="N309" t="n">
         <v>50.1818181818182</v>
       </c>
-      <c r="O309" t="inlineStr"/>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
       <c r="P309" t="n">
         <v>5</v>
       </c>
@@ -17520,13 +18728,21 @@
       <c r="J310" t="n">
         <v>0</v>
       </c>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
       <c r="N310" t="n">
         <v>209</v>
       </c>
-      <c r="O310" t="inlineStr"/>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
       <c r="P310" t="n">
         <v>3</v>
       </c>
@@ -17630,13 +18846,21 @@
       <c r="J312" t="n">
         <v>0</v>
       </c>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
       <c r="N312" t="n">
         <v>344.5</v>
       </c>
-      <c r="O312" t="inlineStr"/>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
       <c r="P312" t="n">
         <v>1</v>
       </c>
@@ -17740,13 +18964,21 @@
       <c r="J314" t="n">
         <v>0</v>
       </c>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
       <c r="N314" t="n">
         <v>317</v>
       </c>
-      <c r="O314" t="inlineStr"/>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
       <c r="P314" t="n">
         <v>1</v>
       </c>
@@ -17909,13 +19141,21 @@
       <c r="J317" t="n">
         <v>0</v>
       </c>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
       <c r="N317" t="n">
         <v>499</v>
       </c>
-      <c r="O317" t="inlineStr"/>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
       <c r="P317" t="n">
         <v>1</v>
       </c>
@@ -18019,13 +19259,21 @@
       <c r="J319" t="n">
         <v>0</v>
       </c>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
       <c r="N319" t="n">
         <v>85.3333333333333</v>
       </c>
-      <c r="O319" t="inlineStr"/>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
       <c r="P319" t="n">
         <v>1</v>
       </c>
@@ -18070,13 +19318,21 @@
       <c r="J320" t="n">
         <v>0</v>
       </c>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
       <c r="N320" t="n">
         <v>679</v>
       </c>
-      <c r="O320" t="inlineStr"/>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
       <c r="P320" t="n">
         <v>2</v>
       </c>
@@ -18180,13 +19436,21 @@
       <c r="J322" t="n">
         <v>0</v>
       </c>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
       <c r="N322" t="n">
         <v>977</v>
       </c>
-      <c r="O322" t="inlineStr"/>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
       <c r="P322" t="n">
         <v>1</v>
       </c>
@@ -18231,13 +19495,21 @@
       <c r="J323" t="n">
         <v>0</v>
       </c>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
       <c r="N323" t="n">
         <v>249</v>
       </c>
-      <c r="O323" t="inlineStr"/>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
       <c r="P323" t="n">
         <v>3</v>
       </c>
@@ -18459,13 +19731,21 @@
       <c r="J327" t="n">
         <v>0</v>
       </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
       <c r="N327" t="n">
         <v>744</v>
       </c>
-      <c r="O327" t="inlineStr"/>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
       <c r="P327" t="n">
         <v>1</v>
       </c>
@@ -18628,13 +19908,21 @@
       <c r="J330" t="n">
         <v>0</v>
       </c>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
       <c r="N330" t="n">
         <v>152</v>
       </c>
-      <c r="O330" t="inlineStr"/>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
       <c r="P330" t="n">
         <v>3</v>
       </c>
@@ -18738,13 +20026,21 @@
       <c r="J332" t="n">
         <v>0</v>
       </c>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
       <c r="N332" t="n">
         <v>738</v>
       </c>
-      <c r="O332" t="inlineStr"/>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
       <c r="P332" t="n">
         <v>1</v>
       </c>
@@ -18789,13 +20085,21 @@
       <c r="J333" t="n">
         <v>0</v>
       </c>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
       <c r="N333" t="n">
         <v>71</v>
       </c>
-      <c r="O333" t="inlineStr"/>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
       <c r="P333" t="n">
         <v>2</v>
       </c>
@@ -18899,13 +20203,21 @@
       <c r="J335" t="n">
         <v>0</v>
       </c>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
       <c r="N335" t="n">
         <v>768</v>
       </c>
-      <c r="O335" t="inlineStr"/>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
       <c r="P335" t="n">
         <v>1</v>
       </c>
@@ -19068,13 +20380,21 @@
       <c r="J338" t="n">
         <v>0</v>
       </c>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
       <c r="N338" t="n">
         <v>502</v>
       </c>
-      <c r="O338" t="inlineStr"/>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
       <c r="P338" t="n">
         <v>1</v>
       </c>
@@ -19178,13 +20498,21 @@
       <c r="J340" t="n">
         <v>0</v>
       </c>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
       <c r="N340" t="n">
         <v>506</v>
       </c>
-      <c r="O340" t="inlineStr"/>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
       <c r="P340" t="n">
         <v>2</v>
       </c>
@@ -19406,13 +20734,21 @@
       <c r="J344" t="n">
         <v>0</v>
       </c>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
       <c r="N344" t="n">
         <v>281</v>
       </c>
-      <c r="O344" t="inlineStr"/>
+      <c r="O344" t="n">
+        <v>0</v>
+      </c>
       <c r="P344" t="n">
         <v>1</v>
       </c>
@@ -19457,13 +20793,21 @@
       <c r="J345" t="n">
         <v>0</v>
       </c>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
       <c r="N345" t="n">
         <v>455</v>
       </c>
-      <c r="O345" t="inlineStr"/>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
       <c r="P345" t="n">
         <v>1</v>
       </c>
@@ -19567,13 +20911,21 @@
       <c r="J347" t="n">
         <v>0</v>
       </c>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
       <c r="N347" t="n">
         <v>306.5</v>
       </c>
-      <c r="O347" t="inlineStr"/>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
       <c r="P347" t="n">
         <v>1</v>
       </c>
@@ -19736,13 +21088,21 @@
       <c r="J350" t="n">
         <v>0</v>
       </c>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
       <c r="N350" t="n">
         <v>407</v>
       </c>
-      <c r="O350" t="inlineStr"/>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
       <c r="P350" t="n">
         <v>1</v>
       </c>
@@ -19787,13 +21147,21 @@
       <c r="J351" t="n">
         <v>0</v>
       </c>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
       <c r="N351" t="n">
         <v>220</v>
       </c>
-      <c r="O351" t="inlineStr"/>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
       <c r="P351" t="n">
         <v>1</v>
       </c>
@@ -19838,13 +21206,21 @@
       <c r="J352" t="n">
         <v>0</v>
       </c>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
       <c r="N352" t="n">
         <v>559</v>
       </c>
-      <c r="O352" t="inlineStr"/>
+      <c r="O352" t="n">
+        <v>0</v>
+      </c>
       <c r="P352" t="n">
         <v>1</v>
       </c>
@@ -19889,13 +21265,21 @@
       <c r="J353" t="n">
         <v>0</v>
       </c>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
       <c r="N353" t="n">
         <v>316</v>
       </c>
-      <c r="O353" t="inlineStr"/>
+      <c r="O353" t="n">
+        <v>0</v>
+      </c>
       <c r="P353" t="n">
         <v>3</v>
       </c>
@@ -19940,13 +21324,21 @@
       <c r="J354" t="n">
         <v>0</v>
       </c>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
       <c r="N354" t="n">
         <v>600</v>
       </c>
-      <c r="O354" t="inlineStr"/>
+      <c r="O354" t="n">
+        <v>0</v>
+      </c>
       <c r="P354" t="n">
         <v>1</v>
       </c>
@@ -20050,13 +21442,21 @@
       <c r="J356" t="n">
         <v>0</v>
       </c>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
       <c r="N356" t="n">
         <v>782</v>
       </c>
-      <c r="O356" t="inlineStr"/>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
       <c r="P356" t="n">
         <v>1</v>
       </c>
@@ -20101,13 +21501,21 @@
       <c r="J357" t="n">
         <v>0</v>
       </c>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
       <c r="N357" t="n">
         <v>104.666666666667</v>
       </c>
-      <c r="O357" t="inlineStr"/>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
       <c r="P357" t="n">
         <v>1</v>
       </c>
@@ -20152,13 +21560,21 @@
       <c r="J358" t="n">
         <v>0</v>
       </c>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
       <c r="N358" t="n">
         <v>263</v>
       </c>
-      <c r="O358" t="inlineStr"/>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
       <c r="P358" t="n">
         <v>1</v>
       </c>
@@ -20321,13 +21737,21 @@
       <c r="J361" t="n">
         <v>0</v>
       </c>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
       <c r="N361" t="n">
         <v>313.25</v>
       </c>
-      <c r="O361" t="inlineStr"/>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
       <c r="P361" t="n">
         <v>2</v>
       </c>
@@ -20431,13 +21855,21 @@
       <c r="J363" t="n">
         <v>0</v>
       </c>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
       <c r="N363" t="n">
         <v>196</v>
       </c>
-      <c r="O363" t="inlineStr"/>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
       <c r="P363" t="n">
         <v>1</v>
       </c>
@@ -20541,13 +21973,21 @@
       <c r="J365" t="n">
         <v>0</v>
       </c>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
       <c r="N365" t="n">
         <v>657</v>
       </c>
-      <c r="O365" t="inlineStr"/>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
       <c r="P365" t="n">
         <v>2</v>
       </c>
@@ -20592,13 +22032,21 @@
       <c r="J366" t="n">
         <v>0</v>
       </c>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
       <c r="N366" t="n">
         <v>537.5</v>
       </c>
-      <c r="O366" t="inlineStr"/>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
       <c r="P366" t="n">
         <v>1</v>
       </c>
@@ -20938,13 +22386,21 @@
       <c r="J372" t="n">
         <v>0</v>
       </c>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
       <c r="N372" t="n">
         <v>515</v>
       </c>
-      <c r="O372" t="inlineStr"/>
+      <c r="O372" t="n">
+        <v>0</v>
+      </c>
       <c r="P372" t="n">
         <v>2</v>
       </c>
@@ -21166,13 +22622,21 @@
       <c r="J376" t="n">
         <v>0</v>
       </c>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
-      <c r="M376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
       <c r="N376" t="n">
         <v>349</v>
       </c>
-      <c r="O376" t="inlineStr"/>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
       <c r="P376" t="n">
         <v>1</v>
       </c>
@@ -21394,13 +22858,21 @@
       <c r="J380" t="n">
         <v>0</v>
       </c>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
-      <c r="M380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
       <c r="N380" t="n">
         <v>773</v>
       </c>
-      <c r="O380" t="inlineStr"/>
+      <c r="O380" t="n">
+        <v>0</v>
+      </c>
       <c r="P380" t="n">
         <v>1</v>
       </c>
@@ -21445,13 +22917,21 @@
       <c r="J381" t="n">
         <v>0</v>
       </c>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
-      <c r="M381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
       <c r="N381" t="n">
         <v>276.5</v>
       </c>
-      <c r="O381" t="inlineStr"/>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
       <c r="P381" t="n">
         <v>2</v>
       </c>
@@ -21850,13 +23330,21 @@
       <c r="J388" t="n">
         <v>0</v>
       </c>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
-      <c r="M388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0</v>
+      </c>
       <c r="N388" t="n">
         <v>182.75</v>
       </c>
-      <c r="O388" t="inlineStr"/>
+      <c r="O388" t="n">
+        <v>0</v>
+      </c>
       <c r="P388" t="n">
         <v>1</v>
       </c>
@@ -22019,13 +23507,21 @@
       <c r="J391" t="n">
         <v>0</v>
       </c>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
-      <c r="M391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
       <c r="N391" t="n">
         <v>147</v>
       </c>
-      <c r="O391" t="inlineStr"/>
+      <c r="O391" t="n">
+        <v>0</v>
+      </c>
       <c r="P391" t="n">
         <v>1</v>
       </c>
@@ -22070,13 +23566,21 @@
       <c r="J392" t="n">
         <v>0</v>
       </c>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
-      <c r="M392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
       <c r="N392" t="n">
         <v>176.666666666667</v>
       </c>
-      <c r="O392" t="inlineStr"/>
+      <c r="O392" t="n">
+        <v>0</v>
+      </c>
       <c r="P392" t="n">
         <v>1</v>
       </c>
@@ -22180,13 +23684,21 @@
       <c r="J394" t="n">
         <v>0</v>
       </c>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
-      <c r="M394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
       <c r="N394" t="n">
         <v>364</v>
       </c>
-      <c r="O394" t="inlineStr"/>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
       <c r="P394" t="n">
         <v>1</v>
       </c>
@@ -22290,13 +23802,21 @@
       <c r="J396" t="n">
         <v>0</v>
       </c>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
-      <c r="M396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
       <c r="N396" t="n">
         <v>577</v>
       </c>
-      <c r="O396" t="inlineStr"/>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
       <c r="P396" t="n">
         <v>1</v>
       </c>
@@ -22341,13 +23861,21 @@
       <c r="J397" t="n">
         <v>0</v>
       </c>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
-      <c r="M397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
       <c r="N397" t="n">
         <v>49</v>
       </c>
-      <c r="O397" t="inlineStr"/>
+      <c r="O397" t="n">
+        <v>0</v>
+      </c>
       <c r="P397" t="n">
         <v>1</v>
       </c>
@@ -22510,13 +24038,21 @@
       <c r="J400" t="n">
         <v>0</v>
       </c>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
-      <c r="M400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
       <c r="N400" t="n">
         <v>486.5</v>
       </c>
-      <c r="O400" t="inlineStr"/>
+      <c r="O400" t="n">
+        <v>0</v>
+      </c>
       <c r="P400" t="n">
         <v>2</v>
       </c>
@@ -22561,13 +24097,21 @@
       <c r="J401" t="n">
         <v>0</v>
       </c>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
-      <c r="M401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0</v>
+      </c>
       <c r="N401" t="n">
         <v>353</v>
       </c>
-      <c r="O401" t="inlineStr"/>
+      <c r="O401" t="n">
+        <v>0</v>
+      </c>
       <c r="P401" t="n">
         <v>1</v>
       </c>
@@ -22671,13 +24215,21 @@
       <c r="J403" t="n">
         <v>0</v>
       </c>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
-      <c r="M403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
       <c r="N403" t="n">
         <v>452</v>
       </c>
-      <c r="O403" t="inlineStr"/>
+      <c r="O403" t="n">
+        <v>0</v>
+      </c>
       <c r="P403" t="n">
         <v>1</v>
       </c>
@@ -22722,13 +24274,21 @@
       <c r="J404" t="n">
         <v>0</v>
       </c>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
-      <c r="M404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
       <c r="N404" t="n">
         <v>383.5</v>
       </c>
-      <c r="O404" t="inlineStr"/>
+      <c r="O404" t="n">
+        <v>0</v>
+      </c>
       <c r="P404" t="n">
         <v>1</v>
       </c>
@@ -22832,13 +24392,21 @@
       <c r="J406" t="n">
         <v>0</v>
       </c>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
-      <c r="M406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0</v>
+      </c>
       <c r="N406" t="n">
         <v>211</v>
       </c>
-      <c r="O406" t="inlineStr"/>
+      <c r="O406" t="n">
+        <v>0</v>
+      </c>
       <c r="P406" t="n">
         <v>1</v>
       </c>
@@ -22942,13 +24510,21 @@
       <c r="J408" t="n">
         <v>0</v>
       </c>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
-      <c r="M408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
       <c r="N408" t="n">
         <v>30.75</v>
       </c>
-      <c r="O408" t="inlineStr"/>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
       <c r="P408" t="n">
         <v>2</v>
       </c>
@@ -22993,13 +24569,21 @@
       <c r="J409" t="n">
         <v>0</v>
       </c>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
-      <c r="M409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
       <c r="N409" t="n">
         <v>134.5</v>
       </c>
-      <c r="O409" t="inlineStr"/>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
       <c r="P409" t="n">
         <v>1</v>
       </c>
@@ -23103,13 +24687,21 @@
       <c r="J411" t="n">
         <v>0</v>
       </c>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
-      <c r="M411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
       <c r="N411" t="n">
         <v>1172</v>
       </c>
-      <c r="O411" t="inlineStr"/>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
       <c r="P411" t="n">
         <v>1</v>
       </c>
@@ -23390,13 +24982,21 @@
       <c r="J416" t="n">
         <v>0</v>
       </c>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
-      <c r="M416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0</v>
+      </c>
       <c r="N416" t="n">
         <v>207</v>
       </c>
-      <c r="O416" t="inlineStr"/>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
       <c r="P416" t="n">
         <v>2</v>
       </c>
@@ -23500,13 +25100,21 @@
       <c r="J418" t="n">
         <v>0</v>
       </c>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
-      <c r="M418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0</v>
+      </c>
       <c r="N418" t="n">
         <v>323.333333333333</v>
       </c>
-      <c r="O418" t="inlineStr"/>
+      <c r="O418" t="n">
+        <v>0</v>
+      </c>
       <c r="P418" t="n">
         <v>2</v>
       </c>
@@ -23551,13 +25159,21 @@
       <c r="J419" t="n">
         <v>0</v>
       </c>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
-      <c r="M419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
       <c r="N419" t="n">
         <v>59.5384615384615</v>
       </c>
-      <c r="O419" t="inlineStr"/>
+      <c r="O419" t="n">
+        <v>0</v>
+      </c>
       <c r="P419" t="n">
         <v>6</v>
       </c>
@@ -23602,13 +25218,21 @@
       <c r="J420" t="n">
         <v>0</v>
       </c>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
-      <c r="M420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0</v>
+      </c>
       <c r="N420" t="n">
         <v>365</v>
       </c>
-      <c r="O420" t="inlineStr"/>
+      <c r="O420" t="n">
+        <v>0</v>
+      </c>
       <c r="P420" t="n">
         <v>1</v>
       </c>
@@ -23653,13 +25277,21 @@
       <c r="J421" t="n">
         <v>0</v>
       </c>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0</v>
+      </c>
       <c r="N421" t="n">
         <v>454</v>
       </c>
-      <c r="O421" t="inlineStr"/>
+      <c r="O421" t="n">
+        <v>0</v>
+      </c>
       <c r="P421" t="n">
         <v>1</v>
       </c>
@@ -23704,13 +25336,21 @@
       <c r="J422" t="n">
         <v>0</v>
       </c>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
-      <c r="M422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0</v>
+      </c>
       <c r="N422" t="n">
         <v>886</v>
       </c>
-      <c r="O422" t="inlineStr"/>
+      <c r="O422" t="n">
+        <v>0</v>
+      </c>
       <c r="P422" t="n">
         <v>1</v>
       </c>
@@ -23814,13 +25454,21 @@
       <c r="J424" t="n">
         <v>0</v>
       </c>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
-      <c r="M424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
       <c r="N424" t="n">
         <v>206</v>
       </c>
-      <c r="O424" t="inlineStr"/>
+      <c r="O424" t="n">
+        <v>0</v>
+      </c>
       <c r="P424" t="n">
         <v>1</v>
       </c>
@@ -23865,13 +25513,21 @@
       <c r="J425" t="n">
         <v>0</v>
       </c>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
-      <c r="M425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0</v>
+      </c>
       <c r="N425" t="n">
         <v>196</v>
       </c>
-      <c r="O425" t="inlineStr"/>
+      <c r="O425" t="n">
+        <v>0</v>
+      </c>
       <c r="P425" t="n">
         <v>1</v>
       </c>
@@ -23975,13 +25631,21 @@
       <c r="J427" t="n">
         <v>0</v>
       </c>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
-      <c r="M427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0</v>
+      </c>
       <c r="N427" t="n">
         <v>46.9166666666667</v>
       </c>
-      <c r="O427" t="inlineStr"/>
+      <c r="O427" t="n">
+        <v>0</v>
+      </c>
       <c r="P427" t="n">
         <v>1</v>
       </c>
@@ -24262,13 +25926,21 @@
       <c r="J432" t="n">
         <v>0</v>
       </c>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
-      <c r="M432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0</v>
+      </c>
       <c r="N432" t="n">
         <v>217</v>
       </c>
-      <c r="O432" t="inlineStr"/>
+      <c r="O432" t="n">
+        <v>0</v>
+      </c>
       <c r="P432" t="n">
         <v>1</v>
       </c>
@@ -24313,13 +25985,21 @@
       <c r="J433" t="n">
         <v>0</v>
       </c>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
-      <c r="M433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0</v>
+      </c>
       <c r="N433" t="n">
         <v>446</v>
       </c>
-      <c r="O433" t="inlineStr"/>
+      <c r="O433" t="n">
+        <v>0</v>
+      </c>
       <c r="P433" t="n">
         <v>1</v>
       </c>
@@ -24423,13 +26103,21 @@
       <c r="J435" t="n">
         <v>0</v>
       </c>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
-      <c r="M435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0</v>
+      </c>
       <c r="N435" t="n">
         <v>360</v>
       </c>
-      <c r="O435" t="inlineStr"/>
+      <c r="O435" t="n">
+        <v>0</v>
+      </c>
       <c r="P435" t="n">
         <v>3</v>
       </c>
@@ -24533,13 +26221,21 @@
       <c r="J437" t="n">
         <v>0</v>
       </c>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
-      <c r="M437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0</v>
+      </c>
       <c r="N437" t="n">
         <v>502</v>
       </c>
-      <c r="O437" t="inlineStr"/>
+      <c r="O437" t="n">
+        <v>0</v>
+      </c>
       <c r="P437" t="n">
         <v>1</v>
       </c>
@@ -24702,13 +26398,21 @@
       <c r="J440" t="n">
         <v>0</v>
       </c>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
-      <c r="M440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
       <c r="N440" t="n">
         <v>151</v>
       </c>
-      <c r="O440" t="inlineStr"/>
+      <c r="O440" t="n">
+        <v>0</v>
+      </c>
       <c r="P440" t="n">
         <v>1</v>
       </c>
@@ -24812,13 +26516,21 @@
       <c r="J442" t="n">
         <v>0</v>
       </c>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
-      <c r="M442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
       <c r="N442" t="n">
         <v>770</v>
       </c>
-      <c r="O442" t="inlineStr"/>
+      <c r="O442" t="n">
+        <v>0</v>
+      </c>
       <c r="P442" t="n">
         <v>1</v>
       </c>
@@ -24922,13 +26634,21 @@
       <c r="J444" t="n">
         <v>0</v>
       </c>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
-      <c r="M444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0</v>
+      </c>
       <c r="N444" t="n">
         <v>206.5</v>
       </c>
-      <c r="O444" t="inlineStr"/>
+      <c r="O444" t="n">
+        <v>0</v>
+      </c>
       <c r="P444" t="n">
         <v>6</v>
       </c>
@@ -25150,13 +26870,21 @@
       <c r="J448" t="n">
         <v>0</v>
       </c>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
-      <c r="M448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0</v>
+      </c>
       <c r="N448" t="n">
         <v>294</v>
       </c>
-      <c r="O448" t="inlineStr"/>
+      <c r="O448" t="n">
+        <v>0</v>
+      </c>
       <c r="P448" t="n">
         <v>1</v>
       </c>
@@ -25378,13 +27106,21 @@
       <c r="J452" t="n">
         <v>0</v>
       </c>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
-      <c r="M452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
       <c r="N452" t="n">
         <v>424</v>
       </c>
-      <c r="O452" t="inlineStr"/>
+      <c r="O452" t="n">
+        <v>0</v>
+      </c>
       <c r="P452" t="n">
         <v>1</v>
       </c>
@@ -25488,13 +27224,21 @@
       <c r="J454" t="n">
         <v>0</v>
       </c>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
-      <c r="M454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0</v>
+      </c>
       <c r="N454" t="n">
         <v>297</v>
       </c>
-      <c r="O454" t="inlineStr"/>
+      <c r="O454" t="n">
+        <v>0</v>
+      </c>
       <c r="P454" t="n">
         <v>1</v>
       </c>
@@ -25598,13 +27342,21 @@
       <c r="J456" t="n">
         <v>0</v>
       </c>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
-      <c r="M456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0</v>
+      </c>
       <c r="N456" t="n">
         <v>332</v>
       </c>
-      <c r="O456" t="inlineStr"/>
+      <c r="O456" t="n">
+        <v>0</v>
+      </c>
       <c r="P456" t="n">
         <v>1</v>
       </c>
@@ -25649,13 +27401,21 @@
       <c r="J457" t="n">
         <v>0</v>
       </c>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
-      <c r="M457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0</v>
+      </c>
       <c r="N457" t="n">
         <v>265</v>
       </c>
-      <c r="O457" t="inlineStr"/>
+      <c r="O457" t="n">
+        <v>0</v>
+      </c>
       <c r="P457" t="n">
         <v>1</v>
       </c>
@@ -25818,13 +27578,21 @@
       <c r="J460" t="n">
         <v>0</v>
       </c>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
-      <c r="M460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0</v>
+      </c>
       <c r="N460" t="n">
         <v>129.6</v>
       </c>
-      <c r="O460" t="inlineStr"/>
+      <c r="O460" t="n">
+        <v>0</v>
+      </c>
       <c r="P460" t="n">
         <v>2</v>
       </c>
@@ -25869,13 +27637,21 @@
       <c r="J461" t="n">
         <v>0</v>
       </c>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
-      <c r="M461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0</v>
+      </c>
       <c r="N461" t="n">
         <v>369</v>
       </c>
-      <c r="O461" t="inlineStr"/>
+      <c r="O461" t="n">
+        <v>0</v>
+      </c>
       <c r="P461" t="n">
         <v>1</v>
       </c>
@@ -25920,13 +27696,21 @@
       <c r="J462" t="n">
         <v>0</v>
       </c>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
-      <c r="M462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
       <c r="N462" t="n">
         <v>1117</v>
       </c>
-      <c r="O462" t="inlineStr"/>
+      <c r="O462" t="n">
+        <v>0</v>
+      </c>
       <c r="P462" t="n">
         <v>2</v>
       </c>
@@ -26148,13 +27932,21 @@
       <c r="J466" t="n">
         <v>0</v>
       </c>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
-      <c r="M466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0</v>
+      </c>
       <c r="N466" t="n">
         <v>1028</v>
       </c>
-      <c r="O466" t="inlineStr"/>
+      <c r="O466" t="n">
+        <v>0</v>
+      </c>
       <c r="P466" t="n">
         <v>1</v>
       </c>
@@ -26199,13 +27991,21 @@
       <c r="J467" t="n">
         <v>0</v>
       </c>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
-      <c r="M467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0</v>
+      </c>
       <c r="N467" t="n">
         <v>489</v>
       </c>
-      <c r="O467" t="inlineStr"/>
+      <c r="O467" t="n">
+        <v>0</v>
+      </c>
       <c r="P467" t="n">
         <v>1</v>
       </c>
@@ -26250,13 +28050,21 @@
       <c r="J468" t="n">
         <v>0</v>
       </c>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
-      <c r="M468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>0</v>
+      </c>
       <c r="N468" t="n">
         <v>390</v>
       </c>
-      <c r="O468" t="inlineStr"/>
+      <c r="O468" t="n">
+        <v>0</v>
+      </c>
       <c r="P468" t="n">
         <v>1</v>
       </c>
@@ -26301,13 +28109,21 @@
       <c r="J469" t="n">
         <v>0</v>
       </c>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
-      <c r="M469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
       <c r="N469" t="n">
         <v>242.25</v>
       </c>
-      <c r="O469" t="inlineStr"/>
+      <c r="O469" t="n">
+        <v>0</v>
+      </c>
       <c r="P469" t="n">
         <v>1</v>
       </c>
@@ -26588,13 +28404,21 @@
       <c r="J474" t="n">
         <v>0</v>
       </c>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
-      <c r="M474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M474" t="n">
+        <v>0</v>
+      </c>
       <c r="N474" t="n">
         <v>850</v>
       </c>
-      <c r="O474" t="inlineStr"/>
+      <c r="O474" t="n">
+        <v>0</v>
+      </c>
       <c r="P474" t="n">
         <v>1</v>
       </c>
@@ -26639,13 +28463,21 @@
       <c r="J475" t="n">
         <v>0</v>
       </c>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
-      <c r="M475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M475" t="n">
+        <v>0</v>
+      </c>
       <c r="N475" t="n">
         <v>571</v>
       </c>
-      <c r="O475" t="inlineStr"/>
+      <c r="O475" t="n">
+        <v>0</v>
+      </c>
       <c r="P475" t="n">
         <v>1</v>
       </c>
@@ -26690,13 +28522,21 @@
       <c r="J476" t="n">
         <v>0</v>
       </c>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
-      <c r="M476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M476" t="n">
+        <v>0</v>
+      </c>
       <c r="N476" t="n">
         <v>238</v>
       </c>
-      <c r="O476" t="inlineStr"/>
+      <c r="O476" t="n">
+        <v>0</v>
+      </c>
       <c r="P476" t="n">
         <v>1</v>
       </c>
@@ -26859,13 +28699,21 @@
       <c r="J479" t="n">
         <v>0</v>
       </c>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
-      <c r="M479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M479" t="n">
+        <v>0</v>
+      </c>
       <c r="N479" t="n">
         <v>672</v>
       </c>
-      <c r="O479" t="inlineStr"/>
+      <c r="O479" t="n">
+        <v>0</v>
+      </c>
       <c r="P479" t="n">
         <v>1</v>
       </c>
@@ -27205,13 +29053,21 @@
       <c r="J485" t="n">
         <v>0</v>
       </c>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
-      <c r="M485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M485" t="n">
+        <v>0</v>
+      </c>
       <c r="N485" t="n">
         <v>362</v>
       </c>
-      <c r="O485" t="inlineStr"/>
+      <c r="O485" t="n">
+        <v>0</v>
+      </c>
       <c r="P485" t="n">
         <v>1</v>
       </c>
@@ -27374,13 +29230,21 @@
       <c r="J488" t="n">
         <v>0</v>
       </c>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
-      <c r="M488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M488" t="n">
+        <v>0</v>
+      </c>
       <c r="N488" t="n">
         <v>99.5</v>
       </c>
-      <c r="O488" t="inlineStr"/>
+      <c r="O488" t="n">
+        <v>0</v>
+      </c>
       <c r="P488" t="n">
         <v>1</v>
       </c>
@@ -27425,13 +29289,21 @@
       <c r="J489" t="n">
         <v>0</v>
       </c>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
-      <c r="M489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M489" t="n">
+        <v>0</v>
+      </c>
       <c r="N489" t="n">
         <v>359</v>
       </c>
-      <c r="O489" t="inlineStr"/>
+      <c r="O489" t="n">
+        <v>0</v>
+      </c>
       <c r="P489" t="n">
         <v>1</v>
       </c>
@@ -27476,13 +29348,21 @@
       <c r="J490" t="n">
         <v>0</v>
       </c>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
-      <c r="M490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M490" t="n">
+        <v>0</v>
+      </c>
       <c r="N490" t="n">
         <v>397</v>
       </c>
-      <c r="O490" t="inlineStr"/>
+      <c r="O490" t="n">
+        <v>0</v>
+      </c>
       <c r="P490" t="n">
         <v>1</v>
       </c>
@@ -27527,13 +29407,21 @@
       <c r="J491" t="n">
         <v>0</v>
       </c>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
-      <c r="M491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M491" t="n">
+        <v>0</v>
+      </c>
       <c r="N491" t="n">
         <v>49</v>
       </c>
-      <c r="O491" t="inlineStr"/>
+      <c r="O491" t="n">
+        <v>0</v>
+      </c>
       <c r="P491" t="n">
         <v>1</v>
       </c>
@@ -27578,13 +29466,21 @@
       <c r="J492" t="n">
         <v>0</v>
       </c>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
-      <c r="M492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M492" t="n">
+        <v>0</v>
+      </c>
       <c r="N492" t="n">
         <v>516</v>
       </c>
-      <c r="O492" t="inlineStr"/>
+      <c r="O492" t="n">
+        <v>0</v>
+      </c>
       <c r="P492" t="n">
         <v>1</v>
       </c>
@@ -28042,13 +29938,21 @@
       <c r="J500" t="n">
         <v>0</v>
       </c>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
-      <c r="M500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0</v>
+      </c>
       <c r="N500" t="n">
         <v>59.1111111111111</v>
       </c>
-      <c r="O500" t="inlineStr"/>
+      <c r="O500" t="n">
+        <v>0</v>
+      </c>
       <c r="P500" t="n">
         <v>1</v>
       </c>
@@ -28093,13 +29997,21 @@
       <c r="J501" t="n">
         <v>0</v>
       </c>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
-      <c r="M501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0</v>
+      </c>
       <c r="N501" t="n">
         <v>2377</v>
       </c>
-      <c r="O501" t="inlineStr"/>
+      <c r="O501" t="n">
+        <v>0</v>
+      </c>
       <c r="P501" t="n">
         <v>1</v>
       </c>
@@ -28203,13 +30115,21 @@
       <c r="J503" t="n">
         <v>0</v>
       </c>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
-      <c r="M503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M503" t="n">
+        <v>0</v>
+      </c>
       <c r="N503" t="n">
         <v>219.6</v>
       </c>
-      <c r="O503" t="inlineStr"/>
+      <c r="O503" t="n">
+        <v>0</v>
+      </c>
       <c r="P503" t="n">
         <v>1</v>
       </c>
@@ -28313,13 +30233,21 @@
       <c r="J505" t="n">
         <v>0</v>
       </c>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
-      <c r="M505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M505" t="n">
+        <v>0</v>
+      </c>
       <c r="N505" t="n">
         <v>941</v>
       </c>
-      <c r="O505" t="inlineStr"/>
+      <c r="O505" t="n">
+        <v>0</v>
+      </c>
       <c r="P505" t="n">
         <v>1</v>
       </c>
@@ -28600,13 +30528,21 @@
       <c r="J510" t="n">
         <v>0</v>
       </c>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
-      <c r="M510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M510" t="n">
+        <v>0</v>
+      </c>
       <c r="N510" t="n">
         <v>514</v>
       </c>
-      <c r="O510" t="inlineStr"/>
+      <c r="O510" t="n">
+        <v>0</v>
+      </c>
       <c r="P510" t="n">
         <v>1</v>
       </c>
@@ -28651,13 +30587,21 @@
       <c r="J511" t="n">
         <v>0</v>
       </c>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
-      <c r="M511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>0</v>
+      </c>
       <c r="N511" t="n">
         <v>855</v>
       </c>
-      <c r="O511" t="inlineStr"/>
+      <c r="O511" t="n">
+        <v>0</v>
+      </c>
       <c r="P511" t="n">
         <v>1</v>
       </c>
@@ -28820,13 +30764,21 @@
       <c r="J514" t="n">
         <v>0</v>
       </c>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
-      <c r="M514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M514" t="n">
+        <v>0</v>
+      </c>
       <c r="N514" t="n">
         <v>1546</v>
       </c>
-      <c r="O514" t="inlineStr"/>
+      <c r="O514" t="n">
+        <v>0</v>
+      </c>
       <c r="P514" t="n">
         <v>1</v>
       </c>
@@ -29048,13 +31000,21 @@
       <c r="J518" t="n">
         <v>0</v>
       </c>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
-      <c r="M518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M518" t="n">
+        <v>0</v>
+      </c>
       <c r="N518" t="n">
         <v>1284</v>
       </c>
-      <c r="O518" t="inlineStr"/>
+      <c r="O518" t="n">
+        <v>0</v>
+      </c>
       <c r="P518" t="n">
         <v>1</v>
       </c>
@@ -29394,13 +31354,21 @@
       <c r="J524" t="n">
         <v>0</v>
       </c>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
-      <c r="M524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>0</v>
+      </c>
       <c r="N524" t="n">
         <v>1737</v>
       </c>
-      <c r="O524" t="inlineStr"/>
+      <c r="O524" t="n">
+        <v>0</v>
+      </c>
       <c r="P524" t="n">
         <v>1</v>
       </c>
@@ -29504,13 +31472,21 @@
       <c r="J526" t="n">
         <v>0</v>
       </c>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
-      <c r="M526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>0</v>
+      </c>
       <c r="N526" t="n">
         <v>779</v>
       </c>
-      <c r="O526" t="inlineStr"/>
+      <c r="O526" t="n">
+        <v>0</v>
+      </c>
       <c r="P526" t="n">
         <v>1</v>
       </c>
@@ -29614,13 +31590,21 @@
       <c r="J528" t="n">
         <v>0</v>
       </c>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
-      <c r="M528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0</v>
+      </c>
       <c r="N528" t="n">
         <v>375</v>
       </c>
-      <c r="O528" t="inlineStr"/>
+      <c r="O528" t="n">
+        <v>0</v>
+      </c>
       <c r="P528" t="n">
         <v>3</v>
       </c>
@@ -29783,13 +31767,21 @@
       <c r="J531" t="n">
         <v>0</v>
       </c>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
-      <c r="M531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>0</v>
+      </c>
       <c r="N531" t="n">
         <v>65</v>
       </c>
-      <c r="O531" t="inlineStr"/>
+      <c r="O531" t="n">
+        <v>0</v>
+      </c>
       <c r="P531" t="n">
         <v>1</v>
       </c>
@@ -29834,13 +31826,21 @@
       <c r="J532" t="n">
         <v>0</v>
       </c>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
-      <c r="M532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>0</v>
+      </c>
       <c r="N532" t="n">
         <v>990</v>
       </c>
-      <c r="O532" t="inlineStr"/>
+      <c r="O532" t="n">
+        <v>0</v>
+      </c>
       <c r="P532" t="n">
         <v>1</v>
       </c>
@@ -29944,13 +31944,21 @@
       <c r="J534" t="n">
         <v>0</v>
       </c>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
-      <c r="M534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>0</v>
+      </c>
       <c r="N534" t="n">
         <v>1339</v>
       </c>
-      <c r="O534" t="inlineStr"/>
+      <c r="O534" t="n">
+        <v>0</v>
+      </c>
       <c r="P534" t="n">
         <v>1</v>
       </c>
@@ -30054,13 +32062,21 @@
       <c r="J536" t="n">
         <v>0</v>
       </c>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
-      <c r="M536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>0</v>
+      </c>
       <c r="N536" t="n">
         <v>1355</v>
       </c>
-      <c r="O536" t="inlineStr"/>
+      <c r="O536" t="n">
+        <v>0</v>
+      </c>
       <c r="P536" t="n">
         <v>1</v>
       </c>
@@ -30105,13 +32121,21 @@
       <c r="J537" t="n">
         <v>0</v>
       </c>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
-      <c r="M537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>0</v>
+      </c>
       <c r="N537" t="n">
         <v>1627</v>
       </c>
-      <c r="O537" t="inlineStr"/>
+      <c r="O537" t="n">
+        <v>0</v>
+      </c>
       <c r="P537" t="n">
         <v>1</v>
       </c>
@@ -30156,13 +32180,21 @@
       <c r="J538" t="n">
         <v>0</v>
       </c>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
-      <c r="M538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>0</v>
+      </c>
       <c r="N538" t="n">
         <v>491</v>
       </c>
-      <c r="O538" t="inlineStr"/>
+      <c r="O538" t="n">
+        <v>0</v>
+      </c>
       <c r="P538" t="n">
         <v>1</v>
       </c>
@@ -30443,13 +32475,21 @@
       <c r="J543" t="n">
         <v>0</v>
       </c>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
-      <c r="M543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0</v>
+      </c>
       <c r="N543" t="n">
         <v>134.5</v>
       </c>
-      <c r="O543" t="inlineStr"/>
+      <c r="O543" t="n">
+        <v>0</v>
+      </c>
       <c r="P543" t="n">
         <v>1</v>
       </c>
@@ -30553,13 +32593,21 @@
       <c r="J545" t="n">
         <v>0</v>
       </c>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
-      <c r="M545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>0</v>
+      </c>
       <c r="N545" t="n">
         <v>606</v>
       </c>
-      <c r="O545" t="inlineStr"/>
+      <c r="O545" t="n">
+        <v>0</v>
+      </c>
       <c r="P545" t="n">
         <v>1</v>
       </c>
@@ -30663,13 +32711,21 @@
       <c r="J547" t="n">
         <v>0</v>
       </c>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
-      <c r="M547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>0</v>
+      </c>
       <c r="N547" t="n">
         <v>1105.5</v>
       </c>
-      <c r="O547" t="inlineStr"/>
+      <c r="O547" t="n">
+        <v>0</v>
+      </c>
       <c r="P547" t="n">
         <v>1</v>
       </c>
@@ -30714,13 +32770,21 @@
       <c r="J548" t="n">
         <v>0</v>
       </c>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
-      <c r="M548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>0</v>
+      </c>
       <c r="N548" t="n">
         <v>262</v>
       </c>
-      <c r="O548" t="inlineStr"/>
+      <c r="O548" t="n">
+        <v>0</v>
+      </c>
       <c r="P548" t="n">
         <v>2</v>
       </c>
@@ -30765,13 +32829,21 @@
       <c r="J549" t="n">
         <v>0</v>
       </c>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
-      <c r="M549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>0</v>
+      </c>
       <c r="N549" t="n">
         <v>1707</v>
       </c>
-      <c r="O549" t="inlineStr"/>
+      <c r="O549" t="n">
+        <v>0</v>
+      </c>
       <c r="P549" t="n">
         <v>1</v>
       </c>
@@ -30934,13 +33006,21 @@
       <c r="J552" t="n">
         <v>0</v>
       </c>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
-      <c r="M552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>0</v>
+      </c>
       <c r="N552" t="n">
         <v>667</v>
       </c>
-      <c r="O552" t="inlineStr"/>
+      <c r="O552" t="n">
+        <v>0</v>
+      </c>
       <c r="P552" t="n">
         <v>1</v>
       </c>
@@ -31103,13 +33183,21 @@
       <c r="J555" t="n">
         <v>0</v>
       </c>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
-      <c r="M555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>0</v>
+      </c>
       <c r="N555" t="n">
         <v>92</v>
       </c>
-      <c r="O555" t="inlineStr"/>
+      <c r="O555" t="n">
+        <v>0</v>
+      </c>
       <c r="P555" t="n">
         <v>1</v>
       </c>
@@ -31154,13 +33242,21 @@
       <c r="J556" t="n">
         <v>0</v>
       </c>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
-      <c r="M556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>0</v>
+      </c>
       <c r="N556" t="n">
         <v>303.5</v>
       </c>
-      <c r="O556" t="inlineStr"/>
+      <c r="O556" t="n">
+        <v>0</v>
+      </c>
       <c r="P556" t="n">
         <v>2</v>
       </c>
@@ -31205,13 +33301,21 @@
       <c r="J557" t="n">
         <v>0</v>
       </c>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
-      <c r="M557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>0</v>
+      </c>
       <c r="N557" t="n">
         <v>271</v>
       </c>
-      <c r="O557" t="inlineStr"/>
+      <c r="O557" t="n">
+        <v>0</v>
+      </c>
       <c r="P557" t="n">
         <v>1</v>
       </c>
@@ -31374,13 +33478,21 @@
       <c r="J560" t="n">
         <v>0</v>
       </c>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
-      <c r="M560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>0</v>
+      </c>
       <c r="N560" t="n">
         <v>27.3333333333333</v>
       </c>
-      <c r="O560" t="inlineStr"/>
+      <c r="O560" t="n">
+        <v>0</v>
+      </c>
       <c r="P560" t="n">
         <v>1</v>
       </c>
@@ -31484,13 +33596,21 @@
       <c r="J562" t="n">
         <v>0</v>
       </c>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
-      <c r="M562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M562" t="n">
+        <v>0</v>
+      </c>
       <c r="N562" t="n">
         <v>431</v>
       </c>
-      <c r="O562" t="inlineStr"/>
+      <c r="O562" t="n">
+        <v>0</v>
+      </c>
       <c r="P562" t="n">
         <v>1</v>
       </c>
@@ -31712,13 +33832,21 @@
       <c r="J566" t="n">
         <v>0</v>
       </c>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
-      <c r="M566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M566" t="n">
+        <v>0</v>
+      </c>
       <c r="N566" t="n">
         <v>75.75</v>
       </c>
-      <c r="O566" t="inlineStr"/>
+      <c r="O566" t="n">
+        <v>0</v>
+      </c>
       <c r="P566" t="n">
         <v>2</v>
       </c>
@@ -31822,13 +33950,21 @@
       <c r="J568" t="n">
         <v>0</v>
       </c>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
-      <c r="M568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M568" t="n">
+        <v>0</v>
+      </c>
       <c r="N568" t="n">
         <v>1262</v>
       </c>
-      <c r="O568" t="inlineStr"/>
+      <c r="O568" t="n">
+        <v>0</v>
+      </c>
       <c r="P568" t="n">
         <v>1</v>
       </c>
@@ -31873,13 +34009,21 @@
       <c r="J569" t="n">
         <v>0</v>
       </c>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
-      <c r="M569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M569" t="n">
+        <v>0</v>
+      </c>
       <c r="N569" t="n">
         <v>1042.5</v>
       </c>
-      <c r="O569" t="inlineStr"/>
+      <c r="O569" t="n">
+        <v>0</v>
+      </c>
       <c r="P569" t="n">
         <v>1</v>
       </c>
@@ -31924,13 +34068,21 @@
       <c r="J570" t="n">
         <v>0</v>
       </c>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
-      <c r="M570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M570" t="n">
+        <v>0</v>
+      </c>
       <c r="N570" t="n">
         <v>328.25</v>
       </c>
-      <c r="O570" t="inlineStr"/>
+      <c r="O570" t="n">
+        <v>0</v>
+      </c>
       <c r="P570" t="n">
         <v>1</v>
       </c>
@@ -31975,13 +34127,21 @@
       <c r="J571" t="n">
         <v>0</v>
       </c>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
-      <c r="M571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M571" t="n">
+        <v>0</v>
+      </c>
       <c r="N571" t="n">
         <v>533</v>
       </c>
-      <c r="O571" t="inlineStr"/>
+      <c r="O571" t="n">
+        <v>0</v>
+      </c>
       <c r="P571" t="n">
         <v>1</v>
       </c>
@@ -32085,13 +34245,21 @@
       <c r="J573" t="n">
         <v>0</v>
       </c>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
-      <c r="M573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M573" t="n">
+        <v>0</v>
+      </c>
       <c r="N573" t="n">
         <v>1152</v>
       </c>
-      <c r="O573" t="inlineStr"/>
+      <c r="O573" t="n">
+        <v>0</v>
+      </c>
       <c r="P573" t="n">
         <v>1</v>
       </c>
@@ -32136,13 +34304,21 @@
       <c r="J574" t="n">
         <v>0</v>
       </c>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
-      <c r="M574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>0</v>
+      </c>
       <c r="N574" t="n">
         <v>491</v>
       </c>
-      <c r="O574" t="inlineStr"/>
+      <c r="O574" t="n">
+        <v>0</v>
+      </c>
       <c r="P574" t="n">
         <v>1</v>
       </c>
@@ -32246,13 +34422,21 @@
       <c r="J576" t="n">
         <v>0</v>
       </c>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
-      <c r="M576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" t="n">
+        <v>0</v>
+      </c>
       <c r="N576" t="n">
         <v>1341</v>
       </c>
-      <c r="O576" t="inlineStr"/>
+      <c r="O576" t="n">
+        <v>0</v>
+      </c>
       <c r="P576" t="n">
         <v>1</v>
       </c>
